--- a/digit_digit_matrix_64/Results/SVM_with_GL.xlsx
+++ b/digit_digit_matrix_64/Results/SVM_with_GL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\digit_digit_matrix_64\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF39148-94DC-4561-AA4F-087A86D2A6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA601DA-F260-4E22-822E-88F95B58A4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97F154ED-AFD4-4F8B-AC9B-273AA66C97F5}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
     <sheet name="SVM+GL_differ_window_size" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,6 +177,5165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>SS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>training_SS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$B$9,'SVM+GL_differ_window_size'!$H$9,'SVM+GL_differ_window_size'!$B$19,'SVM+GL_differ_window_size'!$H$19,'SVM+GL_differ_window_size'!$N$9,'SVM+GL_differ_window_size'!$N$19,'SVM+GL_differ_window_size'!$T$19,'SVM+GL_differ_window_size'!$Z$19,'SVM+GL_differ_window_size'!$AF$19,'SVM+GL_differ_window_size'!$AL$19,'SVM+GL_differ_window_size'!$T$9,'SVM+GL_differ_window_size'!$Z$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.1356465996625055</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8989794855663543E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.7979589711328252E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.9999999999999987E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$B$9,'SVM+GL_differ_window_size'!$H$9,'SVM+GL_differ_window_size'!$B$19,'SVM+GL_differ_window_size'!$H$19,'SVM+GL_differ_window_size'!$N$9,'SVM+GL_differ_window_size'!$N$19,'SVM+GL_differ_window_size'!$T$19,'SVM+GL_differ_window_size'!$Z$19,'SVM+GL_differ_window_size'!$AF$19,'SVM+GL_differ_window_size'!$AL$19,'SVM+GL_differ_window_size'!$T$9,'SVM+GL_differ_window_size'!$Z$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.1356465996625055</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8989794855663543E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.7979589711328252E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.9999999999999987E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]CNN+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$B$8,'SVM+GL_differ_window_size'!$H$8,'SVM+GL_differ_window_size'!$B$18,'SVM+GL_differ_window_size'!$H$18,'SVM+GL_differ_window_size'!$N$8,'SVM+GL_differ_window_size'!$N$18,'SVM+GL_differ_window_size'!$T$18,'SVM+GL_differ_window_size'!$Z$18,'SVM+GL_differ_window_size'!$AF$18,'SVM+GL_differ_window_size'!$AL$18,'SVM+GL_differ_window_size'!$T$8,'SVM+GL_differ_window_size'!$Z$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0325-4B91-A759-22B6A58492D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="553989880"/>
+        <c:axId val="553990208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553989880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553990208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553989880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>SP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>training_SP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$C$9,'SVM+GL_differ_window_size'!$I$9,'SVM+GL_differ_window_size'!$C$19,'SVM+GL_differ_window_size'!$I$19,'SVM+GL_differ_window_size'!$O$9,'SVM+GL_differ_window_size'!$O$19,'SVM+GL_differ_window_size'!$U$19,'SVM+GL_differ_window_size'!$AA$19,'SVM+GL_differ_window_size'!$AG$19,'SVM+GL_differ_window_size'!$AM$19,'SVM+GL_differ_window_size'!$U$9,'SVM+GL_differ_window_size'!$AA$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.2190890230020664</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9442719099991574E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$C$9,'SVM+GL_differ_window_size'!$I$9,'SVM+GL_differ_window_size'!$C$19,'SVM+GL_differ_window_size'!$I$19,'SVM+GL_differ_window_size'!$O$9,'SVM+GL_differ_window_size'!$O$19,'SVM+GL_differ_window_size'!$U$19,'SVM+GL_differ_window_size'!$AA$19,'SVM+GL_differ_window_size'!$AG$19,'SVM+GL_differ_window_size'!$AM$19,'SVM+GL_differ_window_size'!$U$9,'SVM+GL_differ_window_size'!$AA$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.2190890230020664</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.9442719099991574E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.9999999999999988E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]CNN+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$C$8,'SVM+GL_differ_window_size'!$I$8,'SVM+GL_differ_window_size'!$C$18,'SVM+GL_differ_window_size'!$I$18,'SVM+GL_differ_window_size'!$O$8,'SVM+GL_differ_window_size'!$O$18,'SVM+GL_differ_window_size'!$U$18,'SVM+GL_differ_window_size'!$AA$18,'SVM+GL_differ_window_size'!$AG$18,'SVM+GL_differ_window_size'!$AM$18,'SVM+GL_differ_window_size'!$U$8,'SVM+GL_differ_window_size'!$AA$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5401-4987-86E3-EF4407D1183B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="553989880"/>
+        <c:axId val="553990208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553989880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553990208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SP</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553989880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>SS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>test_SS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$D$9,'SVM+GL_differ_window_size'!$J$9,'SVM+GL_differ_window_size'!$D$19,'SVM+GL_differ_window_size'!$J$19,'SVM+GL_differ_window_size'!$P$9,'SVM+GL_differ_window_size'!$P$19,'SVM+GL_differ_window_size'!$V$19,'SVM+GL_differ_window_size'!$AB$19,'SVM+GL_differ_window_size'!$AH$19,'SVM+GL_differ_window_size'!$AN$19,'SVM+GL_differ_window_size'!$V$9,'SVM+GL_differ_window_size'!$AB$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.2059615498096673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0358394418014192E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6756496024512433E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1067902617283063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.3554104284211831E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9292595792877432E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5768197453450273E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4999733332859281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1256157628656891E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.82164760587771E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1825396399275595E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1814462120237072E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$D$9,'SVM+GL_differ_window_size'!$J$9,'SVM+GL_differ_window_size'!$D$19,'SVM+GL_differ_window_size'!$J$19,'SVM+GL_differ_window_size'!$P$9,'SVM+GL_differ_window_size'!$P$19,'SVM+GL_differ_window_size'!$V$19,'SVM+GL_differ_window_size'!$AB$19,'SVM+GL_differ_window_size'!$AH$19,'SVM+GL_differ_window_size'!$AN$19,'SVM+GL_differ_window_size'!$V$9,'SVM+GL_differ_window_size'!$AB$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.2059615498096673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0358394418014192E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6756496024512433E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1067902617283063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.3554104284211831E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9292595792877432E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5768197453450273E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4999733332859281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1256157628656891E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.82164760587771E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1825396399275595E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.1814462120237072E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]CNN+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$D$8,'SVM+GL_differ_window_size'!$J$8,'SVM+GL_differ_window_size'!$D$18,'SVM+GL_differ_window_size'!$J$18,'SVM+GL_differ_window_size'!$P$8,'SVM+GL_differ_window_size'!$P$18,'SVM+GL_differ_window_size'!$V$18,'SVM+GL_differ_window_size'!$AB$18,'SVM+GL_differ_window_size'!$AH$18,'SVM+GL_differ_window_size'!$AN$18,'SVM+GL_differ_window_size'!$V$8,'SVM+GL_differ_window_size'!$AB$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.57119999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91879999999999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87480000000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92639999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97839999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93079999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD69-4507-AF3A-87457DE2B6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="553989880"/>
+        <c:axId val="553990208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553989880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553990208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553989880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>SP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>test_SP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$E$9,'SVM+GL_differ_window_size'!$K$9,'SVM+GL_differ_window_size'!$K$9,'SVM+GL_differ_window_size'!$E$19,'SVM+GL_differ_window_size'!$K$19,'SVM+GL_differ_window_size'!$Q$9,'SVM+GL_differ_window_size'!$Q$19,'SVM+GL_differ_window_size'!$W$19,'SVM+GL_differ_window_size'!$AC$19,'SVM+GL_differ_window_size'!$AI$19,'SVM+GL_differ_window_size'!$AO$19,'SVM+GL_differ_window_size'!$W$9,'SVM+GL_differ_window_size'!$AC$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.21246891537351997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6657025104718177E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6657025104718177E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4499467453943156E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11492884755360598</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12688010088268403</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10228118106474836</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.723224409030431E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.3308767165377672E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.2882748031554719E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.2984526042987305E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.0609802351534366E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.3441556863549511E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('SVM+GL_differ_window_size'!$E$9,'SVM+GL_differ_window_size'!$K$9,'SVM+GL_differ_window_size'!$K$9,'SVM+GL_differ_window_size'!$E$19,'SVM+GL_differ_window_size'!$K$19,'SVM+GL_differ_window_size'!$Q$9,'SVM+GL_differ_window_size'!$Q$19,'SVM+GL_differ_window_size'!$W$19,'SVM+GL_differ_window_size'!$AC$19,'SVM+GL_differ_window_size'!$AI$19,'SVM+GL_differ_window_size'!$AO$19,'SVM+GL_differ_window_size'!$W$9,'SVM+GL_differ_window_size'!$AC$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.21246891537351997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6657025104718177E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6657025104718177E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4499467453943156E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11492884755360598</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12688010088268403</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10228118106474836</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.723224409030431E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.3308767165377672E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.2882748031554719E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.2984526042987305E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.0609802351534366E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.3441556863549511E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]CNN+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$E$8,'SVM+GL_differ_window_size'!$K$8,'SVM+GL_differ_window_size'!$E$18,'SVM+GL_differ_window_size'!$K$18,'SVM+GL_differ_window_size'!$Q$8,'SVM+GL_differ_window_size'!$Q$18,'SVM+GL_differ_window_size'!$W$18,'SVM+GL_differ_window_size'!$AC$18,'SVM+GL_differ_window_size'!$AI$18,'SVM+GL_differ_window_size'!$AO$18,'SVM+GL_differ_window_size'!$W$8,'SVM+GL_differ_window_size'!$AC$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91280000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86840000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89799999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02DB-4CC0-A561-80E5A9029647}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="553989880"/>
+        <c:axId val="553990208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553989880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553990208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SP</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553989880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0DA4B3-0A24-411F-B4A0-AED820C489A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD26B16-C3CB-4579-9D9B-BEAE73919FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF68F46-4AD1-4964-87F2-CA48DBFD3D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4A4B9C-DE9A-4393-A815-86E3816D610C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CNN"/>
+      <sheetName val="CNN+GL_differ_window_size"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="B8">
+            <v>0.86</v>
+          </cell>
+          <cell r="C8">
+            <v>0.42000000000000004</v>
+          </cell>
+          <cell r="D8">
+            <v>0.77780000000000005</v>
+          </cell>
+          <cell r="E8">
+            <v>0.23959999999999998</v>
+          </cell>
+          <cell r="H8">
+            <v>0.86</v>
+          </cell>
+          <cell r="I8">
+            <v>0.96</v>
+          </cell>
+          <cell r="J8">
+            <v>0.44880000000000003</v>
+          </cell>
+          <cell r="K8">
+            <v>0.97159999999999991</v>
+          </cell>
+          <cell r="N8">
+            <v>1</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+          <cell r="P8">
+            <v>0.86879999999999991</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.96479999999999999</v>
+          </cell>
+          <cell r="T8">
+            <v>1</v>
+          </cell>
+          <cell r="U8">
+            <v>1</v>
+          </cell>
+          <cell r="V8">
+            <v>0.94199999999999995</v>
+          </cell>
+          <cell r="W8">
+            <v>0.95</v>
+          </cell>
+          <cell r="Z8">
+            <v>1</v>
+          </cell>
+          <cell r="AA8">
+            <v>1</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.91799999999999993</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.96199999999999997</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>4.8989794855663543E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>7.4833147735478736E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>3.394348243772289E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>4.5789081668013494E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>0.17435595774162713</v>
+          </cell>
+          <cell r="I9">
+            <v>4.8989794855663543E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>0.23722934051250907</v>
+          </cell>
+          <cell r="K9">
+            <v>1.3937001112147488E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>0</v>
+          </cell>
+          <cell r="O9">
+            <v>0</v>
+          </cell>
+          <cell r="P9">
+            <v>4.4874937325861536E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>5.5894185744136217E-2</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>0</v>
+          </cell>
+          <cell r="V9">
+            <v>3.3105890714493685E-2</v>
+          </cell>
+          <cell r="W9">
+            <v>9.0332718325089698E-2</v>
+          </cell>
+          <cell r="Z9">
+            <v>0</v>
+          </cell>
+          <cell r="AA9">
+            <v>0</v>
+          </cell>
+          <cell r="AB9">
+            <v>2.6381811916545827E-2</v>
+          </cell>
+          <cell r="AC9">
+            <v>4.2614551505325025E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>0.84800000000000009</v>
+          </cell>
+          <cell r="E18">
+            <v>0.96839999999999993</v>
+          </cell>
+          <cell r="H18">
+            <v>1</v>
+          </cell>
+          <cell r="I18">
+            <v>1</v>
+          </cell>
+          <cell r="J18">
+            <v>0.82079999999999997</v>
+          </cell>
+          <cell r="K18">
+            <v>0.97760000000000002</v>
+          </cell>
+          <cell r="N18">
+            <v>1</v>
+          </cell>
+          <cell r="O18">
+            <v>1</v>
+          </cell>
+          <cell r="P18">
+            <v>0.92480000000000007</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.86480000000000001</v>
+          </cell>
+          <cell r="T18">
+            <v>1</v>
+          </cell>
+          <cell r="U18">
+            <v>1</v>
+          </cell>
+          <cell r="V18">
+            <v>0.89279999999999993</v>
+          </cell>
+          <cell r="W18">
+            <v>0.88959999999999995</v>
+          </cell>
+          <cell r="Z18">
+            <v>1</v>
+          </cell>
+          <cell r="AA18">
+            <v>1</v>
+          </cell>
+          <cell r="AB18">
+            <v>0.83560000000000001</v>
+          </cell>
+          <cell r="AC18">
+            <v>0.94400000000000017</v>
+          </cell>
+          <cell r="AF18">
+            <v>1</v>
+          </cell>
+          <cell r="AG18">
+            <v>1</v>
+          </cell>
+          <cell r="AH18">
+            <v>0.81120000000000003</v>
+          </cell>
+          <cell r="AI18">
+            <v>0.96599999999999997</v>
+          </cell>
+          <cell r="AL18">
+            <v>1</v>
+          </cell>
+          <cell r="AM18">
+            <v>1</v>
+          </cell>
+          <cell r="AN18">
+            <v>0.80800000000000005</v>
+          </cell>
+          <cell r="AO18">
+            <v>0.98599999999999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>5.6709787515031279E-2</v>
+          </cell>
+          <cell r="E19">
+            <v>1.5564061166674989E-2</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
+          <cell r="J19">
+            <v>9.7624587066988594E-2</v>
+          </cell>
+          <cell r="K19">
+            <v>1.9975985582694054E-2</v>
+          </cell>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>4.903223429541019E-2</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.11158924679376589</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
+          <cell r="U19">
+            <v>0</v>
+          </cell>
+          <cell r="V19">
+            <v>4.5070611267210486E-2</v>
+          </cell>
+          <cell r="W19">
+            <v>0.10411839414820161</v>
+          </cell>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>0</v>
+          </cell>
+          <cell r="AB19">
+            <v>7.7494774017349055E-2</v>
+          </cell>
+          <cell r="AC19">
+            <v>8.3330666623998614E-2</v>
+          </cell>
+          <cell r="AF19">
+            <v>0</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>8.3891358315382553E-2</v>
+          </cell>
+          <cell r="AI19">
+            <v>2.870540018881463E-2</v>
+          </cell>
+          <cell r="AL19">
+            <v>0</v>
+          </cell>
+          <cell r="AM19">
+            <v>0</v>
+          </cell>
+          <cell r="AN19">
+            <v>5.5281099844341028E-2</v>
+          </cell>
+          <cell r="AO19">
+            <v>1.3564659966250548E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>7</v>
+          </cell>
+          <cell r="C23">
+            <v>14</v>
+          </cell>
+          <cell r="D23">
+            <v>20</v>
+          </cell>
+          <cell r="E23">
+            <v>25</v>
+          </cell>
+          <cell r="F23">
+            <v>28</v>
+          </cell>
+          <cell r="G23">
+            <v>30</v>
+          </cell>
+          <cell r="H23">
+            <v>35</v>
+          </cell>
+          <cell r="I23">
+            <v>40</v>
+          </cell>
+          <cell r="J23">
+            <v>45</v>
+          </cell>
+          <cell r="K23">
+            <v>50</v>
+          </cell>
+          <cell r="L23">
+            <v>56</v>
+          </cell>
+          <cell r="M23">
+            <v>112</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="0">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
         <v>1</v>
       </c>
       <c r="D8">
@@ -619,10 +5781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD9C25-746F-40BA-B3EB-61B6AEA4F796}">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1127,7 +6289,7 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:W8" si="0">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
         <v>0.6</v>
       </c>
       <c r="D8">
@@ -1143,7 +6305,7 @@
         <v>0.96</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:AC8" si="1">AVERAGE(I3:I7)</f>
+        <f t="shared" ref="I8:K8" si="1">AVERAGE(I3:I7)</f>
         <v>0.9</v>
       </c>
       <c r="J8">
@@ -1155,7 +6317,7 @@
         <v>0.86040000000000005</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:AC8" si="2">AVERAGE(N3:N7)</f>
+        <f t="shared" ref="N8:Q8" si="2">AVERAGE(N3:N7)</f>
         <v>1</v>
       </c>
       <c r="O8">
@@ -1171,7 +6333,7 @@
         <v>0.89680000000000004</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:AC8" si="3">AVERAGE(S3:S7)</f>
+        <f t="shared" ref="S8:W8" si="3">AVERAGE(S3:S7)</f>
         <v>3</v>
       </c>
       <c r="T8">
@@ -1205,6 +6367,120 @@
       <c r="AC8">
         <f t="shared" si="4"/>
         <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>0.1356465996625055</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:AC9" si="5">_xlfn.STDEV.P(C3:C7)</f>
+        <v>0.2190890230020664</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>0.2059615498096673</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>0.21246891537351997</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>4.8989794855663543E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>8.9442719099991574E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>4.0358394418014192E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>8.6657025104718177E-2</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>4.3554104284211831E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.12688010088268403</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>1.1825396399275595E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>3.0609802351534366E-2</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>3.1814462120237072E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>5.3441556863549511E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1899,117 +7175,280 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:AI18" si="5">AVERAGE(C13:C17)</f>
+        <f t="shared" ref="C18:AI18" si="6">AVERAGE(C13:C17)</f>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96039999999999992</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91280000000000006</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91879999999999984</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90959999999999996</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98000000000000009</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87480000000000013</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86840000000000006</v>
       </c>
       <c r="T18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96</v>
       </c>
       <c r="U18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.876</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84640000000000004</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91999999999999993</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84519999999999995</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89799999999999991</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98000000000000009</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92639999999999989</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88160000000000005</v>
       </c>
       <c r="AL18">
-        <f t="shared" ref="AL18:AO18" si="6">AVERAGE(AL13:AL17)</f>
+        <f t="shared" ref="AL18:AO18" si="7">AVERAGE(AL13:AL17)</f>
         <v>1</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95760000000000001</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:AO19" si="8">_xlfn.STDEV.P(C13:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="8"/>
+        <v>3.6756496024512433E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>8.4499467453943156E-2</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>0.1067902617283063</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0.11492884755360598</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>4.9292595792877432E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>0.10228118106474836</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>2.5768197453450273E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>3.723224409030431E-2</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="8"/>
+        <v>9.7979589711328252E-2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="8"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>7.4999733332859281E-2</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>6.3308767165377672E-2</v>
+      </c>
+      <c r="AD19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="8"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="8"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="8"/>
+        <v>7.1256157628656891E-2</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="8"/>
+        <v>6.2882748031554719E-2</v>
+      </c>
+      <c r="AJ19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="8"/>
+        <v>1.82164760587771E-2</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="8"/>
+        <v>5.2984526042987305E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/digit_digit_matrix_64/Results/SVM_with_GL.xlsx
+++ b/digit_digit_matrix_64/Results/SVM_with_GL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\digit_digit_matrix_64\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA601DA-F260-4E22-822E-88F95B58A4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76342E94-5108-409A-8A86-6E91D70F87AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97F154ED-AFD4-4F8B-AC9B-273AA66C97F5}"/>
   </bookViews>
@@ -2607,6 +2607,1088 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SVM+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$E$10,'SVM+GL_differ_window_size'!$K$10,'SVM+GL_differ_window_size'!$E$20,'SVM+GL_differ_window_size'!$K$20,'SVM+GL_differ_window_size'!$Q$10,'SVM+GL_differ_window_size'!$Q$20,'SVM+GL_differ_window_size'!$W$20,'SVM+GL_differ_window_size'!$AC$20,'SVM+GL_differ_window_size'!$AI$20,'SVM+GL_differ_window_size'!$AO$20,'SVM+GL_differ_window_size'!$W$10,'SVM+GL_differ_window_size'!$AC$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.49219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9799999999999889E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3400000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5800000000000098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0999999999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12839999999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6000000000000085E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6399999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3600000000000017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19EB-4316-B523-B96A6555AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="569814816"/>
+        <c:axId val="569809240"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$F$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34660000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19EB-4316-B523-B96A6555AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="569814816"/>
+        <c:axId val="569809240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="569814816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569809240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569809240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569814816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SVM+GL_differ_window_size'!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SVM+GL_differ_window_size'!$C$10,'SVM+GL_differ_window_size'!$I$10,'SVM+GL_differ_window_size'!$C$20,'SVM+GL_differ_window_size'!$I$20,'SVM+GL_differ_window_size'!$O$10,'SVM+GL_differ_window_size'!$O$20,'SVM+GL_differ_window_size'!$U$20,'SVM+GL_differ_window_size'!$AA$20,'SVM+GL_differ_window_size'!$AG$20,'SVM+GL_differ_window_size'!$AM$20,'SVM+GL_differ_window_size'!$U$10,'SVM+GL_differ_window_size'!$AA$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000062E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25DC-47B9-9ABF-F81DEAF4C143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="569814816"/>
+        <c:axId val="569809240"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$F$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25DC-47B9-9ABF-F81DEAF4C143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="569814816"/>
+        <c:axId val="569809240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="569814816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569809240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569809240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569814816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2767,6 +3849,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4812,6 +5974,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4837,14 +7005,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4874,15 +7042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4913,14 +7081,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4951,14 +7119,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4985,6 +7153,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>185970</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515CEC70-D6DF-4020-9A72-7E019CC0E1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22140</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190140</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57258E9-6261-4709-BD4D-7FA3EF8DA8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4996,304 +7238,8 @@
       <sheetName val="CNN+GL_differ_window_size"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="8">
-          <cell r="B8">
-            <v>0.86</v>
-          </cell>
-          <cell r="C8">
-            <v>0.42000000000000004</v>
-          </cell>
-          <cell r="D8">
-            <v>0.77780000000000005</v>
-          </cell>
-          <cell r="E8">
-            <v>0.23959999999999998</v>
-          </cell>
-          <cell r="H8">
-            <v>0.86</v>
-          </cell>
-          <cell r="I8">
-            <v>0.96</v>
-          </cell>
-          <cell r="J8">
-            <v>0.44880000000000003</v>
-          </cell>
-          <cell r="K8">
-            <v>0.97159999999999991</v>
-          </cell>
-          <cell r="N8">
-            <v>1</v>
-          </cell>
-          <cell r="O8">
-            <v>1</v>
-          </cell>
-          <cell r="P8">
-            <v>0.86879999999999991</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.96479999999999999</v>
-          </cell>
-          <cell r="T8">
-            <v>1</v>
-          </cell>
-          <cell r="U8">
-            <v>1</v>
-          </cell>
-          <cell r="V8">
-            <v>0.94199999999999995</v>
-          </cell>
-          <cell r="W8">
-            <v>0.95</v>
-          </cell>
-          <cell r="Z8">
-            <v>1</v>
-          </cell>
-          <cell r="AA8">
-            <v>1</v>
-          </cell>
-          <cell r="AB8">
-            <v>0.91799999999999993</v>
-          </cell>
-          <cell r="AC8">
-            <v>0.96199999999999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>4.8989794855663543E-2</v>
-          </cell>
-          <cell r="C9">
-            <v>7.4833147735478736E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>3.394348243772289E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>4.5789081668013494E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>0.17435595774162713</v>
-          </cell>
-          <cell r="I9">
-            <v>4.8989794855663543E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>0.23722934051250907</v>
-          </cell>
-          <cell r="K9">
-            <v>1.3937001112147488E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>0</v>
-          </cell>
-          <cell r="O9">
-            <v>0</v>
-          </cell>
-          <cell r="P9">
-            <v>4.4874937325861536E-2</v>
-          </cell>
-          <cell r="Q9">
-            <v>5.5894185744136217E-2</v>
-          </cell>
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9">
-            <v>0</v>
-          </cell>
-          <cell r="V9">
-            <v>3.3105890714493685E-2</v>
-          </cell>
-          <cell r="W9">
-            <v>9.0332718325089698E-2</v>
-          </cell>
-          <cell r="Z9">
-            <v>0</v>
-          </cell>
-          <cell r="AA9">
-            <v>0</v>
-          </cell>
-          <cell r="AB9">
-            <v>2.6381811916545827E-2</v>
-          </cell>
-          <cell r="AC9">
-            <v>4.2614551505325025E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-          <cell r="D18">
-            <v>0.84800000000000009</v>
-          </cell>
-          <cell r="E18">
-            <v>0.96839999999999993</v>
-          </cell>
-          <cell r="H18">
-            <v>1</v>
-          </cell>
-          <cell r="I18">
-            <v>1</v>
-          </cell>
-          <cell r="J18">
-            <v>0.82079999999999997</v>
-          </cell>
-          <cell r="K18">
-            <v>0.97760000000000002</v>
-          </cell>
-          <cell r="N18">
-            <v>1</v>
-          </cell>
-          <cell r="O18">
-            <v>1</v>
-          </cell>
-          <cell r="P18">
-            <v>0.92480000000000007</v>
-          </cell>
-          <cell r="Q18">
-            <v>0.86480000000000001</v>
-          </cell>
-          <cell r="T18">
-            <v>1</v>
-          </cell>
-          <cell r="U18">
-            <v>1</v>
-          </cell>
-          <cell r="V18">
-            <v>0.89279999999999993</v>
-          </cell>
-          <cell r="W18">
-            <v>0.88959999999999995</v>
-          </cell>
-          <cell r="Z18">
-            <v>1</v>
-          </cell>
-          <cell r="AA18">
-            <v>1</v>
-          </cell>
-          <cell r="AB18">
-            <v>0.83560000000000001</v>
-          </cell>
-          <cell r="AC18">
-            <v>0.94400000000000017</v>
-          </cell>
-          <cell r="AF18">
-            <v>1</v>
-          </cell>
-          <cell r="AG18">
-            <v>1</v>
-          </cell>
-          <cell r="AH18">
-            <v>0.81120000000000003</v>
-          </cell>
-          <cell r="AI18">
-            <v>0.96599999999999997</v>
-          </cell>
-          <cell r="AL18">
-            <v>1</v>
-          </cell>
-          <cell r="AM18">
-            <v>1</v>
-          </cell>
-          <cell r="AN18">
-            <v>0.80800000000000005</v>
-          </cell>
-          <cell r="AO18">
-            <v>0.98599999999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>5.6709787515031279E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>1.5564061166674989E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>0</v>
-          </cell>
-          <cell r="J19">
-            <v>9.7624587066988594E-2</v>
-          </cell>
-          <cell r="K19">
-            <v>1.9975985582694054E-2</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>0</v>
-          </cell>
-          <cell r="P19">
-            <v>4.903223429541019E-2</v>
-          </cell>
-          <cell r="Q19">
-            <v>0.11158924679376589</v>
-          </cell>
-          <cell r="T19">
-            <v>0</v>
-          </cell>
-          <cell r="U19">
-            <v>0</v>
-          </cell>
-          <cell r="V19">
-            <v>4.5070611267210486E-2</v>
-          </cell>
-          <cell r="W19">
-            <v>0.10411839414820161</v>
-          </cell>
-          <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>0</v>
-          </cell>
-          <cell r="AB19">
-            <v>7.7494774017349055E-2</v>
-          </cell>
-          <cell r="AC19">
-            <v>8.3330666623998614E-2</v>
-          </cell>
-          <cell r="AF19">
-            <v>0</v>
-          </cell>
-          <cell r="AG19">
-            <v>0</v>
-          </cell>
-          <cell r="AH19">
-            <v>8.3891358315382553E-2</v>
-          </cell>
-          <cell r="AI19">
-            <v>2.870540018881463E-2</v>
-          </cell>
-          <cell r="AL19">
-            <v>0</v>
-          </cell>
-          <cell r="AM19">
-            <v>0</v>
-          </cell>
-          <cell r="AN19">
-            <v>5.5281099844341028E-2</v>
-          </cell>
-          <cell r="AO19">
-            <v>1.3564659966250548E-2</v>
-          </cell>
-        </row>
         <row r="23">
           <cell r="B23">
             <v>7</v>
@@ -5635,10 +7581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F1EE36-F344-4E97-B968-490B99892719}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5647,12 +7593,12 @@
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5669,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5686,7 +7632,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5703,7 +7649,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5720,7 +7666,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5737,7 +7683,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5754,7 +7700,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:17">
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
         <v>1</v>
@@ -5770,6 +7716,102 @@
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0.65479999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11">
+        <f>AVERAGE(B8:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(D8:E8)</f>
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="F11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="G11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="H11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="I11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="J11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="K11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="L11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="M11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="N11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="O11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="P11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="Q11">
+        <f>1-E11</f>
+        <v>0.34660000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5781,10 +7823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD9C25-746F-40BA-B3EB-61B6AEA4F796}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6332,12 +8374,8 @@
         <f t="shared" si="2"/>
         <v>0.89680000000000004</v>
       </c>
-      <c r="S8">
-        <f t="shared" ref="S8:W8" si="3">AVERAGE(S3:S7)</f>
-        <v>3</v>
-      </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T8:W8" si="3">AVERAGE(T3:T7)</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="U8">
@@ -6386,14 +8424,6 @@
         <f t="shared" si="5"/>
         <v>0.21246891537351997</v>
       </c>
-      <c r="F9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="H9">
         <f t="shared" si="5"/>
         <v>4.8989794855663543E-2</v>
@@ -6410,14 +8440,6 @@
         <f t="shared" si="5"/>
         <v>8.6657025104718177E-2</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="N9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6434,14 +8456,6 @@
         <f t="shared" si="5"/>
         <v>0.12688010088268403</v>
       </c>
-      <c r="R9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="T9">
         <f t="shared" si="5"/>
         <v>3.9999999999999987E-2</v>
@@ -6458,14 +8472,6 @@
         <f t="shared" si="5"/>
         <v>3.0609802351534366E-2</v>
       </c>
-      <c r="X9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="5"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="Z9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6481,6 +8487,48 @@
       <c r="AC9">
         <f t="shared" si="5"/>
         <v>5.3441556863549511E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="C10">
+        <f>1-AVERAGE(B8:C8)</f>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="E10">
+        <f>1-AVERAGE(D8:E8)</f>
+        <v>0.49219999999999997</v>
+      </c>
+      <c r="I10">
+        <f>1-AVERAGE(H8:I8)</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="K10">
+        <f>1-AVERAGE(J8:K8)</f>
+        <v>9.9799999999999889E-2</v>
+      </c>
+      <c r="O10">
+        <f>1-AVERAGE(N8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>1-AVERAGE(P8:Q8)</f>
+        <v>8.0999999999999961E-2</v>
+      </c>
+      <c r="U10">
+        <f>1-AVERAGE(T8:U8)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="W10">
+        <f>1-AVERAGE(V8:W8)</f>
+        <v>3.6399999999999988E-2</v>
+      </c>
+      <c r="AA10">
+        <f>1-AVERAGE(Z8:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>1-AVERAGE(AB8:AC8)</f>
+        <v>9.3600000000000017E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -7300,14 +9348,6 @@
         <f t="shared" si="8"/>
         <v>8.4499467453943156E-2</v>
       </c>
-      <c r="F19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="H19">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7324,14 +9364,6 @@
         <f t="shared" si="8"/>
         <v>0.11492884755360598</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="N19">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7348,14 +9380,6 @@
         <f t="shared" si="8"/>
         <v>0.10228118106474836</v>
       </c>
-      <c r="R19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="T19">
         <f t="shared" si="8"/>
         <v>7.9999999999999988E-2</v>
@@ -7372,14 +9396,6 @@
         <f t="shared" si="8"/>
         <v>3.723224409030431E-2</v>
       </c>
-      <c r="X19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="Z19">
         <f t="shared" si="8"/>
         <v>9.7979589711328252E-2</v>
@@ -7396,14 +9412,6 @@
         <f t="shared" si="8"/>
         <v>6.3308767165377672E-2</v>
       </c>
-      <c r="AD19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="AF19">
         <f t="shared" si="8"/>
         <v>3.9999999999999994E-2</v>
@@ -7420,14 +9428,6 @@
         <f t="shared" si="8"/>
         <v>6.2882748031554719E-2</v>
       </c>
-      <c r="AJ19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="8"/>
-        <v>1.4142135623730951</v>
-      </c>
       <c r="AL19">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7443,6 +9443,102 @@
       <c r="AO19">
         <f t="shared" si="8"/>
         <v>5.2984526042987305E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="C20">
+        <f>1-AVERAGE(B18:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>1-AVERAGE(D18:E18)</f>
+        <v>6.3400000000000012E-2</v>
+      </c>
+      <c r="I20">
+        <f>1-AVERAGE(H18:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>1-AVERAGE(J18:K18)</f>
+        <v>8.5800000000000098E-2</v>
+      </c>
+      <c r="O20">
+        <f>1-AVERAGE(N18:O18)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Q20">
+        <f>1-AVERAGE(P18:Q18)</f>
+        <v>0.12839999999999985</v>
+      </c>
+      <c r="U20">
+        <f>1-AVERAGE(T18:U18)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="W20">
+        <f>1-AVERAGE(V18:W18)</f>
+        <v>0.13880000000000003</v>
+      </c>
+      <c r="AA20">
+        <f>1-AVERAGE(Z18:AA18)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="AC20">
+        <f>1-AVERAGE(AB18:AC18)</f>
+        <v>0.12840000000000007</v>
+      </c>
+      <c r="AG20">
+        <f>1-AVERAGE(AF18:AG18)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AI20">
+        <f>1-AVERAGE(AH18:AI18)</f>
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="AM20">
+        <f>1-AVERAGE(AL18:AM18)</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>1-AVERAGE(AN18:AO18)</f>
+        <v>9.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>56</v>
+      </c>
+      <c r="M23">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
